--- a/application/views/rpt/xlsx/RUS_rashodnaya_nakladnaya.xlsx
+++ b/application/views/rpt/xlsx/RUS_rashodnaya_nakladnaya.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\acchub\tpl\rpt\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Счет на оплату'!$A$1:$O$21</definedName>
     <definedName name="Сегодня">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -34,9 +29,6 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>{$v[entries][loop][product_quantity]}&lt;merge3&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Всего наименований: </t>
   </si>
   <si>
@@ -109,7 +101,10 @@
     <t>{$v[entries][loop][product_unit]}</t>
   </si>
   <si>
-    <t>{$v[entries][loop][product_name]}&lt;merge7&gt;</t>
+    <t>{$v[entries][loop][product_name]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_quantity]}</t>
   </si>
 </sst>
 </file>
@@ -336,64 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -406,15 +343,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -479,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,7 +721,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,95 +743,95 @@
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="A4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,109 +839,109 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="40" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="38" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="40" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="38" t="s">
+    <row r="10" spans="1:15" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="40" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
+    <row r="11" spans="1:15" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M12" s="5"/>
@@ -954,55 +949,55 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="5">
         <f>MAX(A7:A538)</f>
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -1015,12 +1010,12 @@
     <row r="17" spans="2:15" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="I17" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -1031,12 +1026,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I16:O16"/>
     <mergeCell ref="I17:O17"/>
@@ -1051,6 +1040,12 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
